--- a/download.xlsx
+++ b/download.xlsx
@@ -448,7 +448,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="0" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
